--- a/data/USFWS_INRMPdates.xlsx
+++ b/data/USFWS_INRMPdates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Documents/_POM/repos/PoM-NR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2B004-BDF7-FC47-BAF3-CD29D755FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2D542-7FA6-C341-B1A8-64F9D8B90CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{173B639A-7351-4086-A6D4-F38F74EFFFDD}"/>
+    <workbookView xWindow="1680" yWindow="1920" windowWidth="25220" windowHeight="14080" activeTab="1" xr2:uid="{173B639A-7351-4086-A6D4-F38F74EFFFDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="103">
   <si>
     <t>CommunicationDate</t>
   </si>
@@ -50,9 +51,6 @@
     <t>USFWSParticipantName</t>
   </si>
   <si>
-    <t xml:space="preserve">USAG_DirectorateLead </t>
-  </si>
-  <si>
     <t>USAG_ParticipantName</t>
   </si>
   <si>
@@ -296,18 +294,6 @@
     <t>Meet and Greet, discuss INRMP</t>
   </si>
   <si>
-    <t>- Todd to send Piperia dispersal study and the most recent 5yr Review document – DONE; - Julia to send 2022 species reports – DONE;</t>
-  </si>
-  <si>
-    <t>- Julia to look at INRMP comments and responses, investigate if POM NR is able to update INRMP. – DONE. USAG POM has spent all allocated funding for INRMP drafting &amp; updating;</t>
-  </si>
-  <si>
-    <t>- Julia to attempt to find the potential LMV wetland area. – DONE. I was able to go out to the LMV site with the HDR contractor, Kate Crosthwaite and found the site. I am hoping to secure funding for wetland planning level surveys in future funding years;</t>
-  </si>
-  <si>
-    <t>- Julia &amp; Todd coordinate a site visit to the POM complex in 2023. TODD - just let me know when a site visit works for your schedule.</t>
-  </si>
-  <si>
     <t>2023-02-21</t>
   </si>
   <si>
@@ -317,30 +303,6 @@
     <t>Action items from the 01/23 discussion include: Todd to send Piperia dispersal study and the most recent 5yr Review document – DONE</t>
   </si>
   <si>
-    <t>Julia to send 2022 species reports – DONE</t>
-  </si>
-  <si>
-    <t>Julia to look at INRMP comments and responses, investigate if POM NR is able to update INRMP. – DONE. USAG POM has spent all allocated funding for INRMP drafting &amp; updating.</t>
-  </si>
-  <si>
-    <t>Julia to attempt to find the potential LMV wetland area. – DONE. I was able to go out to the LMV site with the HDR contractor, Kate Crosthwaite and found the site. I am hoping to secure funding for wetland planning level surveys in future funding years.</t>
-  </si>
-  <si>
-    <t>Julia &amp; Todd coordinate a site visit to the POM complex in 2023. TODD - just let me know when a site visit works for your schedule!</t>
-  </si>
-  <si>
-    <t>I will be in the Santa Barbara | Ventura area this Friday if you would like to meet in person! I am attending the Santa Barbara Botanical Garden annual symposium on Saturday.</t>
-  </si>
-  <si>
-    <t>Hello Leilani, Joseph, and Todd,</t>
-  </si>
-  <si>
-    <t>I have read through the comments provided by USFWS regarding the USAG POM INRMP under draft. Apologies for the delayed response from our meeting! After reading over the draft INRMP and comments | responses provided, I wanted to confirm that you all had access to and reviewed the information in the USAG POM INRMP Appendix B (attached here)? It seems to address comments and concerns mentioned in the attached comments and during our discussion, including planning for Piperia yadonii seed collection and seed dispersal (see Appendix B INRMP Issue # POM-TES-1.10 pg B-12).</t>
-  </si>
-  <si>
-    <t>Since I was not a part of previous discussions, I also was hoping to confirm that you all are aware that the USAG POM's most current INRMP is from 2008? I was surprised to learn that is the most current version, so I wanted to make sure you all knew that as well. Julia</t>
-  </si>
-  <si>
     <t>Communication preferences, timelines, PBA Status</t>
   </si>
   <si>
@@ -366,6 +328,24 @@
   </si>
   <si>
     <t>CDFW Signs INRMP</t>
+  </si>
+  <si>
+    <t>Todd to send Piperia dispersal study and the most recent Review document – DONE - Julia to send 2022 species reports – DONE - Julia to look at INRMP comments and responses, investigate if POM NR is able to update INRMP. – DONE. USAG POM has spent all allocated funding for INRMP drafting &amp; updating</t>
+  </si>
+  <si>
+    <t>Email from Julia: I have read through the comments provided by USFWS regarding the USAG POM INRMP under draft. Apologies for the delayed response from our meeting! After reading over the draft INRMP and comments | responses provided, I wanted to confirm that you all had access to and reviewed the information in the USAG POM INRMP Appendix B (attached here)? It seems to address comments and concerns mentioned in the attached comments and during our discussion, including planning for Piperia yadonii seed collection and seed dispersal (see Appendix B INRMP Issue # POM-TES-1.10 pg B-12). Since I was not a part of previous discussions, I also was hoping to confirm that you all are aware that the USAG POM's most current INRMP is from 2008? I was surprised to learn that is the most current version, so I wanted to make sure you all knew that as well. Julia</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>PoM Natural Resource Mgr End Date</t>
+  </si>
+  <si>
+    <t>PoM Natural Resource Mgr Start  Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAG_Lead </t>
   </si>
 </sst>
 </file>
@@ -446,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -468,6 +448,9 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,12 +764,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23ACDB0-C5CB-0645-A005-40DFD65C83D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABED0124-523D-4E10-8048-144C93F85BD6}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +789,7 @@
     <col min="1" max="1" width="15.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
     <col min="8" max="8" width="30.83203125" customWidth="1"/>
@@ -815,19 +810,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -838,26 +833,26 @@
         <v>44043</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -868,22 +863,22 @@
         <v>44089</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -896,26 +891,26 @@
         <v>44089</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -926,26 +921,26 @@
         <v>44179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -956,26 +951,26 @@
         <v>44180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -986,26 +981,26 @@
         <v>44182</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1016,26 +1011,26 @@
         <v>44182</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1046,26 +1041,26 @@
         <v>44193</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1076,24 +1071,24 @@
         <v>44197</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1104,26 +1099,26 @@
         <v>44203</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1134,26 +1129,26 @@
         <v>44203</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1164,26 +1159,26 @@
         <v>44203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1194,26 +1189,26 @@
         <v>44203</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1224,26 +1219,26 @@
         <v>44207</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1254,28 +1249,28 @@
         <v>44342</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1286,25 +1281,25 @@
         <v>44512</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1316,26 +1311,26 @@
         <v>44516</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1346,26 +1341,26 @@
         <v>44517</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1376,26 +1371,26 @@
         <v>44517</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1406,26 +1401,26 @@
         <v>44517</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1436,26 +1431,26 @@
         <v>44517</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1463,61 +1458,57 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
-        <v>44567</v>
+        <v>44535</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1528,26 +1519,28 @@
         <v>44568</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I25" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1555,29 +1548,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1585,29 +1578,29 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1615,29 +1608,29 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>44599</v>
+        <v>44586</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1645,29 +1638,29 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
-        <v>44609</v>
+        <v>44599</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1678,26 +1671,26 @@
         <v>44609</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1708,26 +1701,26 @@
         <v>44609</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1735,29 +1728,29 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>44642</v>
+        <v>44609</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1765,31 +1758,29 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <v>44645</v>
+        <v>44642</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1797,31 +1788,31 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <v>44708</v>
+        <v>44645</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1829,128 +1820,146 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
-        <v>44725</v>
+        <v>44708</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
-        <v>44740</v>
+        <v>44725</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
-        <v>44805</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>44740</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
-        <v>44827</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="A39" s="9">
+        <v>44827</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1960,28 +1969,28 @@
         <v>44875</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1992,22 +2001,22 @@
         <v>44883</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2020,22 +2029,22 @@
         <v>44883</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2044,45 +2053,57 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
-        <v>44949</v>
+      <c r="A43" s="9">
+        <v>44900</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="11">
+        <v>44949</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H44" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2090,58 +2111,86 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="3"/>
+      <c r="A45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="3"/>
+      <c r="A46" s="11">
+        <v>44978</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>90</v>
+      <c r="A47" s="9">
+        <v>44986</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G47" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
@@ -2152,206 +2201,34 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="A48" s="9">
+        <v>44992</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
-        <v>44978</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>44986</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>44992</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
